--- a/biology/Zoologie/Denys_de_Philadelphie/Denys_de_Philadelphie.xlsx
+++ b/biology/Zoologie/Denys_de_Philadelphie/Denys_de_Philadelphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denys de Philadelphie est un poète didactique grec de l'Antiquité à qui l'on attribue un traité d'ornithologie (Ὀρνιθιακά / Ornithiaka) ou un traité de chasse aux oiseaux (Ἰξευτικά / Ixeutika). L'ouvrage, anciennement attribué à Oppien de Corycos, l'est également à Denys le Périégète. Il comptait à l'origine deux ou trois livres, préservés par une paraphrase de l'époque byzantine attribuée à Eutecnios le Sophiste et figurant dans le manuscrit Dioscoride de Vienne, daté du VIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(grc + la) Antonio Garzya, Dionysii ixeuticon seu de aucupio libri tres, Leipzig, Teubner, 1963</t>
         </is>
